--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etashj/Documents/GitHub/banana-split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FCDA8-C433-7740-BAB3-13BD736E7D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8EF9A8-0100-C541-8A22-89904A4081A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15100" yWindow="760" windowWidth="15140" windowHeight="17820" xr2:uid="{DC6C3621-A1B4-534A-9EBD-A931127DEE2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Banana Split Bill of Materials</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Nice!View</t>
   </si>
   <si>
-    <t>18650 Battery Holder w/ JST PH Connector</t>
-  </si>
-  <si>
-    <t>18650 Battery 3.7 V</t>
-  </si>
-  <si>
     <t>Twilight Silent Kalih Choc V1 Switches</t>
   </si>
   <si>
@@ -102,6 +96,24 @@
   </si>
   <si>
     <t>Surface Mount Push Switch (SW_TACT_ALPS_SKQGABE010)</t>
+  </si>
+  <si>
+    <t>M3 Screw and Nut Set</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Rubber Feet</t>
+  </si>
+  <si>
+    <t>18650 Battery Holder</t>
+  </si>
+  <si>
+    <t>18650 Battery (VAPCELL K25 18650)</t>
+  </si>
+  <si>
+    <t>LIION Wholesale</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +145,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,18 +171,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF4E7F-A75B-0E49-AFC9-2FA9F665DCAC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,13 +585,13 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F16" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -670,33 +693,43 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>3.49</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -711,23 +744,96 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>40</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.59</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{D8380DA5-54ED-124E-9AEA-7070CAA745E0}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{3B7F3B4A-0B68-A349-BDD0-8E392C460F87}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{C2EE55D7-0E7C-5840-BE74-38EC88FF672A}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{20BD35C4-C746-BB45-8730-3476C332372F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etashj/Documents/GitHub/banana-split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8EF9A8-0100-C541-8A22-89904A4081A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813BDD03-5C11-8C4B-84D1-DE46EA34E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="760" windowWidth="15140" windowHeight="17820" xr2:uid="{DC6C3621-A1B4-534A-9EBD-A931127DEE2F}"/>
+    <workbookView xWindow="15100" yWindow="760" windowWidth="28820" windowHeight="20860" xr2:uid="{DC6C3621-A1B4-534A-9EBD-A931127DEE2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Banana Split Bill of Materials</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Twilight Silent Kalih Choc V1 Switches</t>
   </si>
   <si>
-    <t>Clear Acrylic Front Plate</t>
-  </si>
-  <si>
     <t>Choc V1 Hot Swap Sockets</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Rubber Feet</t>
-  </si>
-  <si>
     <t>18650 Battery Holder</t>
   </si>
   <si>
@@ -114,6 +108,42 @@
   </si>
   <si>
     <t>LIION Wholesale</t>
+  </si>
+  <si>
+    <t>Holy Keebs</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Minimum 5 Produced</t>
+  </si>
+  <si>
+    <t>BeeKeeb</t>
+  </si>
+  <si>
+    <t>Rubber Feet (2 pack)</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Projected 7% Tax</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Shipping Estimate</t>
+  </si>
+  <si>
+    <t>Typeractive</t>
+  </si>
+  <si>
+    <t>JLPCB</t>
   </si>
 </sst>
 </file>
@@ -123,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +183,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,6 +219,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF4E7F-A75B-0E49-AFC9-2FA9F665DCAC}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,72 +566,95 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.399999999999999</v>
+      </c>
       <c r="F4" s="2">
         <f>D4*E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>30.64</v>
+      </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F5:F19" si="0">D5*E5</f>
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
@@ -602,15 +662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
@@ -618,12 +678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -631,208 +694,233 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <v>1.05</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.05</v>
+      </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.59</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>7.59</v>
+        <v>8.15</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
         <v>8.15</v>
       </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <f>SUM(F4:F19)</f>
+        <v>285.45999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+        <f>0.07*(F21+F22)</f>
+        <v>21.382200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f>SUM(F21:F23)</f>
+        <v>326.84219999999999</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{D8380DA5-54ED-124E-9AEA-7070CAA745E0}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{3B7F3B4A-0B68-A349-BDD0-8E392C460F87}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{C2EE55D7-0E7C-5840-BE74-38EC88FF672A}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{20BD35C4-C746-BB45-8730-3476C332372F}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{D8380DA5-54ED-124E-9AEA-7070CAA745E0}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{3B7F3B4A-0B68-A349-BDD0-8E392C460F87}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{C2EE55D7-0E7C-5840-BE74-38EC88FF672A}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{20BD35C4-C746-BB45-8730-3476C332372F}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{F8896DBD-9487-9A44-B0E1-816F8A07A03B}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{2EC658B3-2A14-4449-B0EE-F8B97E02E585}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{76FC1DEC-F5D8-CD47-ACB0-93657DF73390}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{4CD4ED55-8782-5E47-9EDB-E2896A94B82F}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{56819926-291C-8843-98D2-9BAEFF794E02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etashj/Documents/GitHub/banana-split/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813BDD03-5C11-8C4B-84D1-DE46EA34E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD290FF-1D95-3540-B7FA-82CCE800F19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="760" windowWidth="28820" windowHeight="20860" xr2:uid="{DC6C3621-A1B4-534A-9EBD-A931127DEE2F}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27240" xr2:uid="{DC6C3621-A1B4-534A-9EBD-A931127DEE2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Banana Split Bill of Materials</t>
   </si>
@@ -89,18 +89,12 @@
     <t>Twilight Silent Kalih Choc V1 Switches</t>
   </si>
   <si>
-    <t>Choc V1 Hot Swap Sockets</t>
-  </si>
-  <si>
     <t>Surface Mount Push Switch (SW_TACT_ALPS_SKQGABE010)</t>
   </si>
   <si>
     <t>M3 Screw and Nut Set</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>18650 Battery Holder</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>LIION Wholesale</t>
   </si>
   <si>
-    <t>Holy Keebs</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>BeeKeeb</t>
   </si>
   <si>
-    <t>Rubber Feet (2 pack)</t>
-  </si>
-  <si>
     <t>Sparkfun</t>
   </si>
   <si>
@@ -143,7 +131,22 @@
     <t>Typeractive</t>
   </si>
   <si>
-    <t>JLPCB</t>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Rubber Feet (4 pack)</t>
+  </si>
+  <si>
+    <t>Choc V1 Hot Swap Sockets (100 pc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best price has 100 pc, only use 40. </t>
+  </si>
+  <si>
+    <t>JLC3DP</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -608,20 +611,20 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>16.399999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="F4" s="2">
         <f>D4*E4</f>
-        <v>82</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -656,10 +659,12 @@
       <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0.3</v>
+      </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -672,10 +677,12 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0.3</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,10 +695,12 @@
       <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0.3</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -710,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -728,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -743,28 +752,28 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -782,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -797,28 +806,31 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>0.25</v>
+        <v>7.4</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7.4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -833,38 +845,38 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>7.59</v>
+        <v>3.94</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>7.59</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>8.15</v>
+        <v>0.91</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>8.15</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,17 +885,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
         <f>SUM(F4:F19)</f>
-        <v>285.45999999999998</v>
+        <v>215.59999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
@@ -892,22 +904,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
         <f>0.07*(F21+F22)</f>
-        <v>21.382200000000001</v>
+        <v>16.492000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
         <f>SUM(F21:F23)</f>
-        <v>326.84219999999999</v>
+        <v>252.09199999999996</v>
       </c>
     </row>
   </sheetData>
